--- a/catalogue-service-micro/src/test/resources/template/MDF_Raw_new.xlsx
+++ b/catalogue-service-micro/src/test/resources/template/MDF_Raw_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doguk\Desktop\Nimble\catalog-service\catalogue-service-micro\src\test\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\srdc\projects\NIMBLE\project_starts\codes\catalog-service\catalogue-service-micro\src\test\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A339952-D8C1-4D08-9839-69BB8119407F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4137151-499C-4E04-82B3-2D9D90D50017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="231">
   <si>
     <t>How to fill in this template?</t>
   </si>
@@ -731,6 +731,9 @@
   </si>
   <si>
     <t>FCA (Free Carrier)</t>
+  </si>
+  <si>
+    <t>Warranty info updated</t>
   </si>
 </sst>
 </file>
@@ -814,13 +817,6 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -841,6 +837,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1160,248 +1163,248 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="287.109375"/>
-    <col min="2" max="1025" width="10.77734375"/>
+    <col min="1" max="1" width="287.140625"/>
+    <col min="2" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+    <row r="41" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
+    <row r="44" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
+    <row r="49" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
+    <row r="52" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+    <row r="55" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
+    <row r="58" spans="1:1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>47</v>
       </c>
@@ -1420,520 +1423,520 @@
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="6"/>
-    <col min="2" max="2" width="44.5546875"/>
-    <col min="3" max="4" width="25.21875"/>
-    <col min="5" max="5" width="21.5546875"/>
-    <col min="6" max="6" width="19.44140625"/>
-    <col min="7" max="7" width="21.5546875"/>
-    <col min="8" max="8" width="19.44140625"/>
-    <col min="9" max="9" width="21.5546875"/>
-    <col min="10" max="10" width="19.44140625"/>
-    <col min="11" max="11" width="25.6640625"/>
-    <col min="12" max="12" width="64.6640625"/>
-    <col min="13" max="13" width="51.109375"/>
-    <col min="14" max="14" width="19.44140625"/>
-    <col min="15" max="15" width="30.21875"/>
-    <col min="16" max="16" width="46.44140625"/>
+    <col min="1" max="1" width="27.140625" style="3"/>
+    <col min="2" max="2" width="44.5703125"/>
+    <col min="3" max="4" width="25.28515625"/>
+    <col min="5" max="5" width="21.5703125"/>
+    <col min="6" max="6" width="19.42578125"/>
+    <col min="7" max="7" width="21.5703125"/>
+    <col min="8" max="8" width="19.42578125"/>
+    <col min="9" max="9" width="21.5703125"/>
+    <col min="10" max="10" width="19.42578125"/>
+    <col min="11" max="11" width="25.7109375"/>
+    <col min="12" max="12" width="64.7109375"/>
+    <col min="13" max="13" width="51.140625"/>
+    <col min="14" max="14" width="19.42578125"/>
+    <col min="15" max="15" width="30.28515625"/>
+    <col min="16" max="16" width="46.42578125"/>
     <col min="17" max="17" width="46"/>
-    <col min="18" max="18" width="25.21875"/>
-    <col min="19" max="19" width="36.6640625"/>
-    <col min="20" max="20" width="46.6640625"/>
-    <col min="21" max="21" width="39.77734375"/>
-    <col min="22" max="22" width="54.109375"/>
-    <col min="23" max="23" width="25.21875"/>
-    <col min="24" max="24" width="46.88671875"/>
-    <col min="25" max="25" width="25.21875"/>
-    <col min="26" max="26" width="39.6640625"/>
-    <col min="27" max="27" width="25.21875"/>
+    <col min="18" max="18" width="25.28515625"/>
+    <col min="19" max="19" width="36.7109375"/>
+    <col min="20" max="20" width="46.7109375"/>
+    <col min="21" max="21" width="39.7109375"/>
+    <col min="22" max="22" width="54.140625"/>
+    <col min="23" max="23" width="25.28515625"/>
+    <col min="24" max="24" width="46.85546875"/>
+    <col min="25" max="25" width="25.28515625"/>
+    <col min="26" max="26" width="39.7109375"/>
+    <col min="27" max="27" width="25.28515625"/>
     <col min="28" max="28" width="35"/>
-    <col min="29" max="29" width="27.44140625"/>
-    <col min="30" max="30" width="41.5546875"/>
-    <col min="31" max="31" width="39.109375"/>
-    <col min="32" max="32" width="39.21875"/>
-    <col min="33" max="33" width="32.44140625"/>
-    <col min="34" max="34" width="29.6640625"/>
-    <col min="35" max="35" width="52.33203125"/>
-    <col min="36" max="36" width="37.6640625"/>
-    <col min="37" max="37" width="34.5546875"/>
-    <col min="38" max="38" width="50.6640625"/>
+    <col min="29" max="29" width="27.42578125"/>
+    <col min="30" max="30" width="41.5703125"/>
+    <col min="31" max="31" width="39.140625"/>
+    <col min="32" max="32" width="39.28515625"/>
+    <col min="33" max="33" width="32.42578125"/>
+    <col min="34" max="34" width="29.7109375"/>
+    <col min="35" max="35" width="52.28515625"/>
+    <col min="36" max="36" width="37.7109375"/>
+    <col min="37" max="37" width="34.5703125"/>
+    <col min="38" max="38" width="50.7109375"/>
     <col min="39" max="39" width="34"/>
     <col min="40" max="40" width="37"/>
-    <col min="41" max="41" width="21.5546875"/>
-    <col min="42" max="42" width="19.44140625"/>
-    <col min="43" max="43" width="25.6640625"/>
-    <col min="44" max="44" width="19.44140625"/>
-    <col min="45" max="45" width="21.5546875"/>
-    <col min="46" max="46" width="19.44140625"/>
-    <col min="47" max="47" width="57.6640625"/>
-    <col min="48" max="48" width="19.44140625"/>
-    <col min="49" max="1025" width="10.77734375"/>
+    <col min="41" max="41" width="21.5703125"/>
+    <col min="42" max="42" width="19.42578125"/>
+    <col min="43" max="43" width="25.7109375"/>
+    <col min="44" max="44" width="19.42578125"/>
+    <col min="45" max="45" width="21.5703125"/>
+    <col min="46" max="46" width="19.42578125"/>
+    <col min="47" max="47" width="57.7109375"/>
+    <col min="48" max="48" width="19.42578125"/>
+    <col min="49" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="3" t="s">
+    <row r="1" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3" t="s">
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="3"/>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="3"/>
-      <c r="AG1" s="3"/>
-      <c r="AH1" s="3"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
-      <c r="AL1" s="3"/>
-      <c r="AM1" s="3"/>
-      <c r="AN1" s="3"/>
-      <c r="AO1" s="3"/>
-      <c r="AP1" s="3"/>
-      <c r="AQ1" s="3"/>
-      <c r="AR1" s="3"/>
-      <c r="AS1" s="3"/>
-      <c r="AT1" s="3"/>
-      <c r="AU1" s="3"/>
-      <c r="AV1" s="3"/>
-    </row>
-    <row r="2" spans="1:48" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
+      <c r="AB1" s="16"/>
+      <c r="AC1" s="16"/>
+      <c r="AD1" s="16"/>
+      <c r="AE1" s="16"/>
+      <c r="AF1" s="16"/>
+      <c r="AG1" s="16"/>
+      <c r="AH1" s="16"/>
+      <c r="AI1" s="16"/>
+      <c r="AJ1" s="16"/>
+      <c r="AK1" s="16"/>
+      <c r="AL1" s="16"/>
+      <c r="AM1" s="16"/>
+      <c r="AN1" s="16"/>
+      <c r="AO1" s="16"/>
+      <c r="AP1" s="16"/>
+      <c r="AQ1" s="16"/>
+      <c r="AR1" s="16"/>
+      <c r="AS1" s="16"/>
+      <c r="AT1" s="16"/>
+      <c r="AU1" s="16"/>
+      <c r="AV1" s="16"/>
+    </row>
+    <row r="2" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="8" t="s">
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="8" t="s">
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="8" t="s">
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AV2" s="6"/>
-    </row>
-    <row r="3" spans="1:48" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="AV2" s="3"/>
+    </row>
+    <row r="3" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="K3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+      <c r="O3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AE3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AE3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AK3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AK3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AP3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AR3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AS3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="AT3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AU3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AV3" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="12" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="11">
         <v>78</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="11">
         <v>70</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="11">
         <v>300</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="10" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1966,508 +1969,508 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="6"/>
-    <col min="2" max="2" width="44.5546875"/>
-    <col min="3" max="3" width="25.21875"/>
-    <col min="4" max="4" width="44.21875"/>
-    <col min="5" max="5" width="21.5546875"/>
-    <col min="6" max="6" width="19.44140625"/>
-    <col min="7" max="7" width="21.5546875"/>
-    <col min="8" max="8" width="19.44140625"/>
-    <col min="9" max="9" width="21.5546875"/>
-    <col min="10" max="10" width="19.44140625"/>
-    <col min="11" max="11" width="25.6640625"/>
-    <col min="12" max="12" width="64.6640625"/>
-    <col min="13" max="13" width="51.109375"/>
-    <col min="14" max="14" width="19.44140625"/>
-    <col min="15" max="15" width="30.21875"/>
-    <col min="16" max="16" width="46.44140625"/>
+    <col min="1" max="1" width="27.140625" style="3"/>
+    <col min="2" max="2" width="44.5703125"/>
+    <col min="3" max="3" width="25.28515625"/>
+    <col min="4" max="4" width="44.28515625"/>
+    <col min="5" max="5" width="21.5703125"/>
+    <col min="6" max="6" width="19.42578125"/>
+    <col min="7" max="7" width="21.5703125"/>
+    <col min="8" max="8" width="19.42578125"/>
+    <col min="9" max="9" width="21.5703125"/>
+    <col min="10" max="10" width="19.42578125"/>
+    <col min="11" max="11" width="25.7109375"/>
+    <col min="12" max="12" width="64.7109375"/>
+    <col min="13" max="13" width="51.140625"/>
+    <col min="14" max="14" width="19.42578125"/>
+    <col min="15" max="15" width="30.28515625"/>
+    <col min="16" max="16" width="46.42578125"/>
     <col min="17" max="17" width="46"/>
-    <col min="18" max="18" width="25.21875"/>
-    <col min="19" max="19" width="36.6640625"/>
-    <col min="20" max="20" width="46.6640625"/>
-    <col min="21" max="21" width="39.77734375"/>
-    <col min="22" max="22" width="54.109375"/>
-    <col min="23" max="23" width="25.21875"/>
-    <col min="24" max="24" width="46.88671875"/>
-    <col min="25" max="25" width="25.21875"/>
-    <col min="26" max="26" width="39.6640625"/>
-    <col min="27" max="27" width="25.21875"/>
+    <col min="18" max="18" width="25.28515625"/>
+    <col min="19" max="19" width="36.7109375"/>
+    <col min="20" max="20" width="46.7109375"/>
+    <col min="21" max="21" width="39.7109375"/>
+    <col min="22" max="22" width="54.140625"/>
+    <col min="23" max="23" width="25.28515625"/>
+    <col min="24" max="24" width="46.85546875"/>
+    <col min="25" max="25" width="25.28515625"/>
+    <col min="26" max="26" width="39.7109375"/>
+    <col min="27" max="27" width="25.28515625"/>
     <col min="28" max="28" width="35"/>
-    <col min="29" max="29" width="27.44140625"/>
-    <col min="30" max="30" width="41.5546875"/>
-    <col min="31" max="31" width="39.109375"/>
-    <col min="32" max="32" width="39.21875"/>
-    <col min="33" max="33" width="32.44140625"/>
-    <col min="34" max="34" width="29.6640625"/>
-    <col min="35" max="35" width="52.33203125"/>
-    <col min="36" max="36" width="37.6640625"/>
-    <col min="37" max="37" width="34.5546875"/>
-    <col min="38" max="38" width="50.6640625"/>
+    <col min="29" max="29" width="27.42578125"/>
+    <col min="30" max="30" width="41.5703125"/>
+    <col min="31" max="31" width="39.140625"/>
+    <col min="32" max="32" width="39.28515625"/>
+    <col min="33" max="33" width="32.42578125"/>
+    <col min="34" max="34" width="29.7109375"/>
+    <col min="35" max="35" width="52.28515625"/>
+    <col min="36" max="36" width="37.7109375"/>
+    <col min="37" max="37" width="34.5703125"/>
+    <col min="38" max="38" width="50.7109375"/>
     <col min="39" max="39" width="34"/>
     <col min="40" max="40" width="37"/>
-    <col min="41" max="41" width="21.5546875"/>
-    <col min="42" max="42" width="19.44140625"/>
-    <col min="43" max="43" width="25.6640625"/>
-    <col min="44" max="44" width="19.44140625"/>
-    <col min="45" max="45" width="21.5546875"/>
-    <col min="46" max="46" width="19.44140625"/>
-    <col min="47" max="47" width="57.6640625"/>
-    <col min="48" max="48" width="19.44140625"/>
-    <col min="49" max="1025" width="10.77734375"/>
+    <col min="41" max="41" width="21.5703125"/>
+    <col min="42" max="42" width="19.42578125"/>
+    <col min="43" max="43" width="25.7109375"/>
+    <col min="44" max="44" width="19.42578125"/>
+    <col min="45" max="45" width="21.5703125"/>
+    <col min="46" max="46" width="19.42578125"/>
+    <col min="47" max="47" width="57.7109375"/>
+    <col min="48" max="48" width="19.42578125"/>
+    <col min="49" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="2" t="s">
+    <row r="1" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-    </row>
-    <row r="2" spans="1:48" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
+      <c r="AB1" s="17"/>
+      <c r="AC1" s="17"/>
+      <c r="AD1" s="17"/>
+      <c r="AE1" s="17"/>
+      <c r="AF1" s="17"/>
+      <c r="AG1" s="17"/>
+      <c r="AH1" s="17"/>
+      <c r="AI1" s="17"/>
+      <c r="AJ1" s="17"/>
+      <c r="AK1" s="17"/>
+      <c r="AL1" s="17"/>
+      <c r="AM1" s="17"/>
+      <c r="AN1" s="17"/>
+      <c r="AO1" s="17"/>
+      <c r="AP1" s="17"/>
+      <c r="AQ1" s="17"/>
+      <c r="AR1" s="17"/>
+      <c r="AS1" s="17"/>
+      <c r="AT1" s="17"/>
+      <c r="AU1" s="17"/>
+      <c r="AV1" s="17"/>
+    </row>
+    <row r="2" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="8" t="s">
+      <c r="J2" s="3"/>
+      <c r="K2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="8" t="s">
+      <c r="N2" s="3"/>
+      <c r="O2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="8" t="s">
+      <c r="U2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="8" t="s">
+      <c r="V2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="8" t="s">
+      <c r="W2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="8" t="s">
+      <c r="X2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="8" t="s">
+      <c r="Y2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="8" t="s">
+      <c r="AA2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" s="8" t="s">
+      <c r="AB2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" s="8" t="s">
+      <c r="AC2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="8" t="s">
+      <c r="AD2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="8" t="s">
+      <c r="AE2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="8" t="s">
+      <c r="AF2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" s="8" t="s">
+      <c r="AG2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="8" t="s">
+      <c r="AH2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" s="8" t="s">
+      <c r="AI2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" s="8" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" s="8" t="s">
+      <c r="AK2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AL2" s="8" t="s">
+      <c r="AL2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" s="8" t="s">
+      <c r="AM2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AN2" s="8" t="s">
+      <c r="AN2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AO2" s="8" t="s">
+      <c r="AO2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="8" t="s">
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="8" t="s">
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="8" t="s">
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AV2" s="6"/>
-    </row>
-    <row r="3" spans="1:48" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="AV2" s="3"/>
+    </row>
+    <row r="3" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="6" t="s">
+      <c r="C3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="K3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="P3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="R3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="S3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="T3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="U3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AD3" s="6" t="s">
+      <c r="O3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AE3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AI3" s="6" t="s">
+      <c r="AE3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AJ3" s="6" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="AK3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO3" s="6" t="s">
+      <c r="AK3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AM3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AO3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AP3" s="6" t="s">
+      <c r="AP3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AQ3" s="6" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AR3" s="6" t="s">
+      <c r="AR3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AS3" s="6" t="s">
+      <c r="AS3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AT3" s="6" t="s">
+      <c r="AT3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AU3" s="6" t="s">
+      <c r="AU3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AV3" s="6" t="s">
+      <c r="AV3" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
-      <c r="AE5" s="7"/>
-      <c r="AF5" s="7"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-      <c r="AI5" s="11"/>
-      <c r="AJ5" s="11"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="7"/>
-      <c r="AN5" s="7"/>
-      <c r="AO5" s="7"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="7"/>
-      <c r="AS5" s="7"/>
-      <c r="AT5" s="7"/>
-      <c r="AU5" s="7"/>
-      <c r="AV5" s="7"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+      <c r="AE5" s="4"/>
+      <c r="AF5" s="4"/>
+      <c r="AG5" s="4"/>
+      <c r="AH5" s="4"/>
+      <c r="AI5" s="8"/>
+      <c r="AJ5" s="8"/>
+      <c r="AK5" s="4"/>
+      <c r="AL5" s="4"/>
+      <c r="AM5" s="4"/>
+      <c r="AN5" s="4"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>101</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="7" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>114</v>
       </c>
@@ -2549,293 +2552,295 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="6"/>
-    <col min="2" max="2" width="44.5546875"/>
-    <col min="3" max="3" width="21.5546875"/>
+    <col min="1" max="1" width="27.140625" style="3"/>
+    <col min="2" max="2" width="44.5703125"/>
+    <col min="3" max="3" width="21.5703125"/>
     <col min="4" max="4" width="14"/>
-    <col min="5" max="5" width="27.5546875"/>
-    <col min="6" max="6" width="19.44140625"/>
-    <col min="7" max="7" width="34.109375"/>
-    <col min="8" max="8" width="19.44140625"/>
-    <col min="9" max="9" width="17.77734375"/>
+    <col min="5" max="5" width="27.5703125"/>
+    <col min="6" max="6" width="19.42578125"/>
+    <col min="7" max="7" width="34.140625"/>
+    <col min="8" max="8" width="19.42578125"/>
+    <col min="9" max="9" width="17.7109375"/>
     <col min="10" max="10" width="34"/>
-    <col min="11" max="11" width="19.44140625"/>
-    <col min="12" max="12" width="30.109375"/>
-    <col min="13" max="13" width="14.5546875"/>
-    <col min="14" max="14" width="19.88671875"/>
-    <col min="15" max="15" width="35.6640625"/>
-    <col min="16" max="16" width="19.44140625"/>
-    <col min="17" max="17" width="37.88671875"/>
-    <col min="18" max="19" width="22.21875"/>
-    <col min="20" max="20" width="24.6640625"/>
-    <col min="21" max="21" width="19.44140625"/>
-    <col min="22" max="1025" width="10.77734375"/>
+    <col min="11" max="11" width="19.42578125"/>
+    <col min="12" max="12" width="30.140625"/>
+    <col min="13" max="13" width="14.5703125"/>
+    <col min="14" max="14" width="19.85546875"/>
+    <col min="15" max="15" width="35.7109375"/>
+    <col min="16" max="16" width="19.42578125"/>
+    <col min="17" max="17" width="37.85546875"/>
+    <col min="18" max="19" width="22.28515625"/>
+    <col min="20" max="20" width="24.7109375"/>
+    <col min="21" max="21" width="19.42578125"/>
+    <col min="22" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="6"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>14</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="9">
         <v>3</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="15" t="b">
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B6" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="14">
-        <v>3</v>
-      </c>
-      <c r="K6" s="13" t="s">
+      <c r="I6" s="13"/>
+      <c r="J6">
+        <v>10</v>
+      </c>
+      <c r="K6" t="s">
         <v>142</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13" t="s">
+      <c r="L6" t="s">
+        <v>230</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="14">
+      <c r="N6" s="10"/>
+      <c r="O6" s="11">
         <v>4</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13" t="s">
+      <c r="Q6" s="10"/>
+      <c r="R6" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="S6" s="13" t="s">
+      <c r="S6" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="T6" s="14">
+      <c r="T6" s="11">
         <v>30</v>
       </c>
-      <c r="U6" s="13" t="s">
+      <c r="U6" s="10" t="s">
         <v>147</v>
       </c>
     </row>
@@ -2865,7 +2870,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2875,263 +2880,263 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.109375" style="6"/>
-    <col min="2" max="2" width="44.5546875"/>
-    <col min="3" max="3" width="21.5546875"/>
+    <col min="1" max="1" width="27.140625" style="3"/>
+    <col min="2" max="2" width="44.5703125"/>
+    <col min="3" max="3" width="21.5703125"/>
     <col min="4" max="4" width="14"/>
-    <col min="5" max="5" width="27.5546875"/>
-    <col min="6" max="6" width="19.44140625"/>
-    <col min="7" max="7" width="34.109375"/>
-    <col min="8" max="8" width="19.44140625"/>
-    <col min="9" max="9" width="17.77734375"/>
+    <col min="5" max="5" width="27.5703125"/>
+    <col min="6" max="6" width="19.42578125"/>
+    <col min="7" max="7" width="34.140625"/>
+    <col min="8" max="8" width="19.42578125"/>
+    <col min="9" max="9" width="17.7109375"/>
     <col min="10" max="10" width="34"/>
-    <col min="11" max="11" width="19.44140625"/>
-    <col min="12" max="12" width="30.109375"/>
-    <col min="13" max="13" width="38.88671875"/>
-    <col min="14" max="14" width="19.88671875"/>
-    <col min="15" max="15" width="35.6640625"/>
-    <col min="16" max="16" width="19.44140625"/>
-    <col min="17" max="17" width="37.88671875"/>
-    <col min="18" max="19" width="22.21875"/>
-    <col min="20" max="20" width="24.6640625"/>
-    <col min="21" max="21" width="19.44140625"/>
-    <col min="22" max="1025" width="10.77734375"/>
+    <col min="11" max="11" width="19.42578125"/>
+    <col min="12" max="12" width="30.140625"/>
+    <col min="13" max="13" width="38.85546875"/>
+    <col min="14" max="14" width="19.85546875"/>
+    <col min="15" max="15" width="35.7109375"/>
+    <col min="16" max="16" width="19.42578125"/>
+    <col min="17" max="17" width="37.85546875"/>
+    <col min="18" max="19" width="22.28515625"/>
+    <col min="20" max="20" width="24.7109375"/>
+    <col min="21" max="21" width="19.42578125"/>
+    <col min="22" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="B1" s="6"/>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+      <c r="C1" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2" t="s">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-    </row>
-    <row r="2" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+    </row>
+    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="3"/>
+      <c r="E2" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="8" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="8" t="s">
+      <c r="P2" s="3"/>
+      <c r="Q2" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="6"/>
-    </row>
-    <row r="3" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="T3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="U3" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
+      <c r="L5" s="4"/>
+      <c r="M5" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7" t="s">
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="P5" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="Q5" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="R5" s="7" t="s">
+      <c r="R5" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="S5" s="7" t="s">
+      <c r="S5" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="T5" s="7" t="s">
+      <c r="T5" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="U5" s="7" t="s">
+      <c r="U5" s="4" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>101</v>
       </c>
@@ -3187,7 +3192,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>114</v>
       </c>
@@ -3283,494 +3288,494 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.21875"/>
-    <col min="2" max="2" width="56.6640625"/>
+    <col min="1" max="1" width="14.28515625"/>
+    <col min="2" max="2" width="56.7109375"/>
     <col min="3" max="3" width="17"/>
-    <col min="4" max="4" width="63.5546875"/>
-    <col min="5" max="5" width="7.6640625"/>
-    <col min="6" max="6" width="63.5546875"/>
-    <col min="7" max="7" width="24.5546875"/>
-    <col min="8" max="8" width="6.88671875"/>
-    <col min="9" max="9" width="18.33203125"/>
-    <col min="10" max="10" width="20.5546875"/>
-    <col min="11" max="11" width="14.6640625"/>
-    <col min="12" max="1025" width="10.77734375"/>
+    <col min="4" max="4" width="63.5703125"/>
+    <col min="5" max="5" width="7.7109375"/>
+    <col min="6" max="6" width="63.5703125"/>
+    <col min="7" max="7" width="24.5703125"/>
+    <col min="8" max="8" width="6.85546875"/>
+    <col min="9" max="9" width="18.28515625"/>
+    <col min="10" max="10" width="20.5703125"/>
+    <col min="11" max="11" width="14.7109375"/>
+    <col min="12" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="17"/>
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="14"/>
+      <c r="B1" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="14" t="s">
         <v>169</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="14" t="s">
         <v>172</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="14" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="F2" s="18"/>
+      <c r="F2" s="15"/>
       <c r="K2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
+    <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="F3" s="18"/>
+      <c r="F3" s="15"/>
       <c r="K3" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
+    <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="18"/>
       <c r="B4" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="F4" s="18"/>
+      <c r="F4" s="15"/>
       <c r="K4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
+    <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="18"/>
       <c r="B5" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F5" s="18"/>
+      <c r="F5" s="15"/>
       <c r="K5" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="18"/>
       <c r="B6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="15"/>
       <c r="K6" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
+    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="18"/>
       <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F7" s="18"/>
+      <c r="F7" s="15"/>
       <c r="K7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
+    <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="18"/>
       <c r="B8" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="18"/>
+      <c r="F8" s="15"/>
       <c r="K8" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="18"/>
       <c r="B9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="18"/>
+      <c r="F9" s="15"/>
       <c r="K9" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="18"/>
       <c r="B10" t="s">
         <v>65</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="15"/>
       <c r="K10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="18"/>
       <c r="B11" t="s">
         <v>66</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="F11" s="18"/>
+      <c r="F11" s="15"/>
       <c r="K11" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
+    <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="18"/>
       <c r="B12" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="15" t="s">
         <v>187</v>
       </c>
       <c r="K12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="92.4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
+    <row r="13" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="18"/>
       <c r="B13" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="15" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="15" t="s">
         <v>189</v>
       </c>
       <c r="K13" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
+    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="18"/>
       <c r="B14" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="15" t="s">
         <v>190</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="15" t="s">
         <v>191</v>
       </c>
       <c r="K14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
+    <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
+      <c r="A15" s="18"/>
       <c r="B15" t="s">
         <v>70</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="F15" s="18"/>
+      <c r="F15" s="15"/>
       <c r="K15" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
+    <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="18"/>
       <c r="B16" t="s">
         <v>71</v>
       </c>
-      <c r="D16" s="18" t="s">
+      <c r="D16" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="F16" s="18"/>
+      <c r="F16" s="15"/>
       <c r="K16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="79.2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
+    <row r="17" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="18"/>
       <c r="B17" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="F17" s="18" t="s">
+      <c r="F17" s="15" t="s">
         <v>195</v>
       </c>
       <c r="K17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="18"/>
       <c r="B18" t="s">
         <v>73</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="15" t="s">
         <v>196</v>
       </c>
-      <c r="F18" s="18"/>
+      <c r="F18" s="15"/>
       <c r="K18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="18"/>
       <c r="B19" t="s">
         <v>74</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="15" t="s">
         <v>198</v>
       </c>
       <c r="K19" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
+    <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
       <c r="B20" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="18" t="s">
+      <c r="D20" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="15"/>
       <c r="K20" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+    <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
       <c r="B21" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="F21" s="18"/>
+      <c r="F21" s="15"/>
       <c r="K21" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
       <c r="B22" t="s">
         <v>77</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="F22" s="18"/>
+      <c r="F22" s="15"/>
       <c r="K22" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="18"/>
       <c r="B23" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="18" t="s">
+      <c r="D23" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="F23" s="18"/>
+      <c r="F23" s="15"/>
       <c r="K23" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="18"/>
       <c r="B24" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="D24" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="F24" s="18"/>
+      <c r="F24" s="15"/>
       <c r="K24" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+    <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="18"/>
       <c r="B25" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="18" t="s">
+      <c r="D25" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="F25" s="18"/>
+      <c r="F25" s="15"/>
       <c r="K25" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+    <row r="26" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="18"/>
       <c r="B26" t="s">
         <v>81</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="15" t="s">
         <v>204</v>
       </c>
-      <c r="F26" s="18"/>
+      <c r="F26" s="15"/>
       <c r="K26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="18"/>
       <c r="B27" t="s">
         <v>82</v>
       </c>
-      <c r="D27" s="18" t="s">
+      <c r="D27" s="15" t="s">
         <v>205</v>
       </c>
-      <c r="F27" s="18"/>
+      <c r="F27" s="15"/>
       <c r="K27" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="18"/>
       <c r="B28" t="s">
         <v>83</v>
       </c>
-      <c r="D28" s="18" t="s">
+      <c r="D28" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="F28" s="18"/>
+      <c r="F28" s="15"/>
       <c r="K28" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
+    <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="18"/>
       <c r="B29" t="s">
         <v>84</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="F29" s="18"/>
+      <c r="F29" s="15"/>
       <c r="K29" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
       <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="18" t="s">
+      <c r="D30" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="F30" s="18"/>
+      <c r="F30" s="15"/>
       <c r="K30" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
+    <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
       <c r="B31" t="s">
         <v>86</v>
       </c>
-      <c r="D31" s="18" t="s">
+      <c r="D31" s="15" t="s">
         <v>209</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="F31" s="15" t="s">
         <v>210</v>
       </c>
       <c r="K31" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
+    <row r="32" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="18"/>
       <c r="B32" t="s">
         <v>87</v>
       </c>
-      <c r="D32" s="18" t="s">
+      <c r="D32" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="F32" s="18"/>
+      <c r="F32" s="15"/>
       <c r="K32" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
+    <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="18"/>
       <c r="B33" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="18" t="s">
+      <c r="D33" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="F33" s="18"/>
+      <c r="F33" s="15"/>
       <c r="K33" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="18"/>
       <c r="B34" t="s">
         <v>89</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="F34" s="18"/>
+      <c r="F34" s="15"/>
       <c r="K34" t="s">
         <v>180</v>
       </c>
@@ -3790,9 +3795,9 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.77734375"/>
+    <col min="1" max="1025" width="10.7109375"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3806,22 +3811,22 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.77734375"/>
+    <col min="1" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>216</v>
       </c>
@@ -3838,12 +3843,12 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="10.77734375"/>
+    <col min="1" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>217</v>
       </c>
@@ -3863,7 +3868,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>148</v>
       </c>
@@ -3883,7 +3888,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>157</v>
       </c>
@@ -3903,7 +3908,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>222</v>
       </c>
@@ -3917,42 +3922,42 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>143</v>
       </c>

--- a/catalogue-service-micro/src/test/resources/template/MDF_Raw_new.xlsx
+++ b/catalogue-service-micro/src/test/resources/template/MDF_Raw_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\srdc\projects\NIMBLE\project_starts\codes\catalog-service\catalogue-service-micro\src\test\resources\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doguk\Desktop\Nimble\catalog-service\catalogue-service-micro\src\test\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4137151-499C-4E04-82B3-2D9D90D50017}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E8889-BA45-4114-B280-5272C9D333B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="233">
   <si>
     <t>How to fill in this template?</t>
   </si>
@@ -734,6 +734,12 @@
   </si>
   <si>
     <t>Warranty info updated</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PUBLISHED</t>
   </si>
 </sst>
 </file>
@@ -1417,10 +1423,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AW6"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1475,22 +1481,22 @@
     <col min="49" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:49" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="16" t="s">
+      <c r="K1" s="16"/>
+      <c r="L1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
@@ -1527,8 +1533,9 @@
       <c r="AT1" s="16"/>
       <c r="AU1" s="16"/>
       <c r="AV1" s="16"/>
-    </row>
-    <row r="2" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="AW1" s="16"/>
+    </row>
+    <row r="2" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
@@ -1542,123 +1549,126 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3"/>
+      <c r="J2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="J2" s="3"/>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="N2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="3"/>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="Q2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="R2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="S2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="V2" s="5" t="s">
+      <c r="W2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="W2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AC2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AD2" s="5" t="s">
+      <c r="AE2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AE2" s="5" t="s">
+      <c r="AF2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AF2" s="5" t="s">
+      <c r="AG2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AG2" s="5" t="s">
+      <c r="AH2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AH2" s="5" t="s">
+      <c r="AI2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AI2" s="5" t="s">
+      <c r="AJ2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="AJ2" s="5" t="s">
+      <c r="AK2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="AK2" s="5" t="s">
+      <c r="AL2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="AL2" s="5" t="s">
+      <c r="AM2" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" s="5" t="s">
+      <c r="AN2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="AN2" s="5" t="s">
+      <c r="AO2" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="AO2" s="5" t="s">
+      <c r="AP2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AP2" s="3"/>
-      <c r="AQ2" s="5" t="s">
+      <c r="AQ2" s="3"/>
+      <c r="AR2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AR2" s="3"/>
-      <c r="AS2" s="5" t="s">
+      <c r="AS2" s="3"/>
+      <c r="AT2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AT2" s="3"/>
-      <c r="AU2" s="5" t="s">
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AV2" s="3"/>
-    </row>
-    <row r="3" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+      <c r="AW2" s="3"/>
+    </row>
+    <row r="3" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1672,38 +1682,38 @@
         <v>92</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="L3" s="3" t="s">
         <v>92</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="O3" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="P3" s="3" t="s">
         <v>92</v>
       </c>
@@ -1747,11 +1757,11 @@
         <v>92</v>
       </c>
       <c r="AD3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="AE3" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="AF3" s="3" t="s">
         <v>92</v>
       </c>
@@ -1762,13 +1772,13 @@
         <v>92</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AJ3" s="3" t="s">
         <v>96</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AL3" s="3" t="s">
         <v>92</v>
@@ -1780,31 +1790,34 @@
         <v>92</v>
       </c>
       <c r="AO3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AP3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AP3" s="3" t="s">
+      <c r="AQ3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AV3" s="3" t="s">
+      <c r="AW3" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:49" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -1855,8 +1868,9 @@
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
-    </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AW4" s="3"/>
+    </row>
+    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>98</v>
       </c>
@@ -1864,20 +1878,22 @@
         <v>99</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="8"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="9" t="s">
+      <c r="O5" s="4"/>
+      <c r="P5" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1896,9 +1912,9 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="8"/>
+      <c r="AI5" s="4"/>
       <c r="AJ5" s="8"/>
-      <c r="AK5" s="4"/>
+      <c r="AK5" s="8"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
@@ -1910,8 +1926,9 @@
       <c r="AT5" s="4"/>
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
-    </row>
-    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
+      <c r="AW5" s="4"/>
+    </row>
+    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>101</v>
       </c>
@@ -1921,36 +1938,39 @@
       <c r="D6" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="11">
         <v>78</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="G6" s="11">
+      <c r="H6" s="11">
         <v>70</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="I6" s="11">
+      <c r="J6" s="11">
         <v>300</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:AV1"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="L1:AW1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="F5 J5 H5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="G5 K5 I5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Dimension</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="AI5:AJ5" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="AJ5:AK5" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Boolean</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2552,7 +2572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:U6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>

--- a/catalogue-service-micro/src/test/resources/template/MDF_Raw_new.xlsx
+++ b/catalogue-service-micro/src/test/resources/template/MDF_Raw_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doguk\Desktop\Nimble\catalog-service\catalogue-service-micro\src\test\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7E8889-BA45-4114-B280-5272C9D333B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D78678-8B35-4C10-938C-83CDCEAFAE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="231">
   <si>
     <t>How to fill in this template?</t>
   </si>
@@ -734,12 +734,6 @@
   </si>
   <si>
     <t>Warranty info updated</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>PUBLISHED</t>
   </si>
 </sst>
 </file>
@@ -1423,10 +1417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AW6"/>
+  <dimension ref="A1:AV6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1481,22 +1475,22 @@
     <col min="49" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" ht="15" x14ac:dyDescent="0.2">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>48</v>
       </c>
+      <c r="F1" s="16"/>
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
       <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>49</v>
       </c>
+      <c r="L1" s="16"/>
       <c r="M1" s="16"/>
       <c r="N1" s="16"/>
       <c r="O1" s="16"/>
@@ -1533,9 +1527,8 @@
       <c r="AT1" s="16"/>
       <c r="AU1" s="16"/>
       <c r="AV1" s="16"/>
-      <c r="AW1" s="16"/>
-    </row>
-    <row r="2" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
@@ -1549,126 +1542,123 @@
         <v>53</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="5" t="s">
+      <c r="H2" s="3"/>
+      <c r="I2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="5" t="s">
+        <v>57</v>
+      </c>
       <c r="L2" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="O2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="P2" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="X2" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Y2" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Z2" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AD2" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AK2" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AM2" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AN2" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AO2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AP2" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="AQ2" s="3"/>
-      <c r="AR2" s="5" t="s">
+      <c r="AP2" s="3"/>
+      <c r="AQ2" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="AS2" s="3"/>
-      <c r="AT2" s="5" t="s">
+      <c r="AR2" s="3"/>
+      <c r="AS2" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AU2" s="3"/>
-      <c r="AV2" s="5" t="s">
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AW2" s="3"/>
-    </row>
-    <row r="3" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+      <c r="AV2" s="3"/>
+    </row>
+    <row r="3" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -1682,37 +1672,37 @@
         <v>92</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>93</v>
-      </c>
       <c r="O3" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="P3" s="3" t="s">
         <v>92</v>
@@ -1757,10 +1747,10 @@
         <v>92</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AE3" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="AF3" s="3" t="s">
         <v>92</v>
@@ -1772,13 +1762,13 @@
         <v>92</v>
       </c>
       <c r="AI3" s="3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="AJ3" s="3" t="s">
         <v>96</v>
       </c>
       <c r="AK3" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AL3" s="3" t="s">
         <v>92</v>
@@ -1790,34 +1780,31 @@
         <v>92</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AP3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AQ3" s="3" t="s">
+      <c r="AR3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AR3" s="3" t="s">
+      <c r="AS3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AS3" s="3" t="s">
+      <c r="AT3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AT3" s="3" t="s">
+      <c r="AU3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AU3" s="3" t="s">
+      <c r="AV3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AV3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="4" spans="1:49" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -1868,9 +1855,8 @@
       <c r="AT4" s="3"/>
       <c r="AU4" s="3"/>
       <c r="AV4" s="3"/>
-      <c r="AW4" s="3"/>
-    </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>98</v>
       </c>
@@ -1878,22 +1864,20 @@
         <v>99</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="8"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="9" t="s">
+      <c r="O5" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
       <c r="S5" s="4"/>
@@ -1912,9 +1896,9 @@
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
       <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
+      <c r="AI5" s="8"/>
       <c r="AJ5" s="8"/>
-      <c r="AK5" s="8"/>
+      <c r="AK5" s="4"/>
       <c r="AL5" s="4"/>
       <c r="AM5" s="4"/>
       <c r="AN5" s="4"/>
@@ -1926,9 +1910,8 @@
       <c r="AT5" s="4"/>
       <c r="AU5" s="4"/>
       <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-    </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>101</v>
       </c>
@@ -1938,39 +1921,32 @@
       <c r="D6" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F6" s="11">
+      <c r="E6" s="11">
         <v>78</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="H6" s="11">
+      <c r="G6" s="11">
         <v>70</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="J6" s="11">
+      <c r="I6" s="11">
         <v>300</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="L1:AW1"/>
-  </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="G5 K5 I5" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="F5 J5 H5" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Dimension</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="AJ5:AK5" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="AI5:AJ5" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Boolean</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/catalogue-service-micro/src/test/resources/template/MDF_Raw_new.xlsx
+++ b/catalogue-service-micro/src/test/resources/template/MDF_Raw_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doguk\Desktop\Nimble\catalog-service\catalogue-service-micro\src\test\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D78678-8B35-4C10-938C-83CDCEAFAE44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C6551C-31AC-4151-825F-4CD1933D1D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="993" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="231">
   <si>
     <t>How to fill in this template?</t>
   </si>
@@ -815,7 +815,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -842,9 +842,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1419,7 +1421,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AV6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
@@ -2022,54 +2024,54 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17" t="s">
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
-      <c r="AB1" s="17"/>
-      <c r="AC1" s="17"/>
-      <c r="AD1" s="17"/>
-      <c r="AE1" s="17"/>
-      <c r="AF1" s="17"/>
-      <c r="AG1" s="17"/>
-      <c r="AH1" s="17"/>
-      <c r="AI1" s="17"/>
-      <c r="AJ1" s="17"/>
-      <c r="AK1" s="17"/>
-      <c r="AL1" s="17"/>
-      <c r="AM1" s="17"/>
-      <c r="AN1" s="17"/>
-      <c r="AO1" s="17"/>
-      <c r="AP1" s="17"/>
-      <c r="AQ1" s="17"/>
-      <c r="AR1" s="17"/>
-      <c r="AS1" s="17"/>
-      <c r="AT1" s="17"/>
-      <c r="AU1" s="17"/>
-      <c r="AV1" s="17"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
+      <c r="AG1" s="18"/>
+      <c r="AH1" s="18"/>
+      <c r="AI1" s="18"/>
+      <c r="AJ1" s="18"/>
+      <c r="AK1" s="18"/>
+      <c r="AL1" s="18"/>
+      <c r="AM1" s="18"/>
+      <c r="AN1" s="18"/>
+      <c r="AO1" s="18"/>
+      <c r="AP1" s="18"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="18"/>
+      <c r="AT1" s="18"/>
+      <c r="AU1" s="18"/>
+      <c r="AV1" s="18"/>
     </row>
     <row r="2" spans="1:48" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -2546,10 +2548,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:U6"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1:T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2577,37 +2579,36 @@
     <col min="22" max="1025" width="10.7109375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17" t="s">
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="17" t="s">
         <v>123</v>
       </c>
+      <c r="S1" s="17"/>
       <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-    </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>50</v>
       </c>
@@ -2647,20 +2648,17 @@
       </c>
       <c r="P2" s="3"/>
       <c r="Q2" s="5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="T2" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+      <c r="T2" s="3"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>90</v>
       </c>
@@ -2716,16 +2714,13 @@
         <v>91</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>97</v>
       </c>
@@ -2748,9 +2743,8 @@
       <c r="R4" s="3"/>
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>98</v>
       </c>
@@ -2782,9 +2776,8 @@
       <c r="R5" s="9"/>
       <c r="S5" s="9"/>
       <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="10" t="s">
         <v>101</v>
       </c>
@@ -2826,26 +2819,23 @@
       <c r="P6" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="Q6" s="10"/>
+      <c r="Q6" s="10" t="s">
+        <v>145</v>
+      </c>
       <c r="R6" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="S6" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="T6" s="11">
+      <c r="S6" s="11">
         <v>30</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="T6" s="10" t="s">
         <v>147</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="C1:I1"/>
     <mergeCell ref="J1:L1"/>
-    <mergeCell ref="M1:R1"/>
-    <mergeCell ref="S1:U1"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid input !" error="Please, select one of the available options" sqref="D5" xr:uid="{00000000-0002-0000-0300-000000000000}">
@@ -2903,33 +2893,33 @@
   <sheetData>
     <row r="1" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17" t="s">
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17" t="s">
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17" t="s">
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
     </row>
     <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -3334,7 +3324,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B2" t="s">
@@ -3349,7 +3339,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="18"/>
+      <c r="A3" s="19"/>
       <c r="B3" t="s">
         <v>58</v>
       </c>
@@ -3362,7 +3352,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="18"/>
+      <c r="A4" s="19"/>
       <c r="B4" t="s">
         <v>59</v>
       </c>
@@ -3375,7 +3365,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="18"/>
+      <c r="A5" s="19"/>
       <c r="B5" t="s">
         <v>60</v>
       </c>
@@ -3388,7 +3378,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="18"/>
+      <c r="A6" s="19"/>
       <c r="B6" t="s">
         <v>61</v>
       </c>
@@ -3401,7 +3391,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="18"/>
+      <c r="A7" s="19"/>
       <c r="B7" t="s">
         <v>62</v>
       </c>
@@ -3414,7 +3404,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
+      <c r="A8" s="19"/>
       <c r="B8" t="s">
         <v>63</v>
       </c>
@@ -3427,7 +3417,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="18"/>
+      <c r="A9" s="19"/>
       <c r="B9" t="s">
         <v>64</v>
       </c>
@@ -3440,7 +3430,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="18"/>
+      <c r="A10" s="19"/>
       <c r="B10" t="s">
         <v>65</v>
       </c>
@@ -3453,7 +3443,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="18"/>
+      <c r="A11" s="19"/>
       <c r="B11" t="s">
         <v>66</v>
       </c>
@@ -3466,7 +3456,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="18"/>
+      <c r="A12" s="19"/>
       <c r="B12" t="s">
         <v>67</v>
       </c>
@@ -3481,7 +3471,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="18"/>
+      <c r="A13" s="19"/>
       <c r="B13" t="s">
         <v>68</v>
       </c>
@@ -3496,7 +3486,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="19"/>
       <c r="B14" t="s">
         <v>69</v>
       </c>
@@ -3511,7 +3501,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="51" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="19"/>
       <c r="B15" t="s">
         <v>70</v>
       </c>
@@ -3524,7 +3514,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="19"/>
       <c r="B16" t="s">
         <v>71</v>
       </c>
@@ -3537,7 +3527,7 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="18"/>
+      <c r="A17" s="19"/>
       <c r="B17" t="s">
         <v>72</v>
       </c>
@@ -3552,7 +3542,7 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="18"/>
+      <c r="A18" s="19"/>
       <c r="B18" t="s">
         <v>73</v>
       </c>
@@ -3565,7 +3555,7 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="18"/>
+      <c r="A19" s="19"/>
       <c r="B19" t="s">
         <v>74</v>
       </c>
@@ -3580,7 +3570,7 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="19"/>
       <c r="B20" t="s">
         <v>75</v>
       </c>
@@ -3593,7 +3583,7 @@
       </c>
     </row>
     <row r="21" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="19"/>
       <c r="B21" t="s">
         <v>76</v>
       </c>
@@ -3606,7 +3596,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="19"/>
       <c r="B22" t="s">
         <v>77</v>
       </c>
@@ -3619,7 +3609,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="18"/>
+      <c r="A23" s="19"/>
       <c r="B23" t="s">
         <v>78</v>
       </c>
@@ -3632,7 +3622,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="18"/>
+      <c r="A24" s="19"/>
       <c r="B24" t="s">
         <v>79</v>
       </c>
@@ -3645,7 +3635,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A25" s="18"/>
+      <c r="A25" s="19"/>
       <c r="B25" t="s">
         <v>80</v>
       </c>
@@ -3658,7 +3648,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="18"/>
+      <c r="A26" s="19"/>
       <c r="B26" t="s">
         <v>81</v>
       </c>
@@ -3671,7 +3661,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="18"/>
+      <c r="A27" s="19"/>
       <c r="B27" t="s">
         <v>82</v>
       </c>
@@ -3684,7 +3674,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="18"/>
+      <c r="A28" s="19"/>
       <c r="B28" t="s">
         <v>83</v>
       </c>
@@ -3697,7 +3687,7 @@
       </c>
     </row>
     <row r="29" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="18"/>
+      <c r="A29" s="19"/>
       <c r="B29" t="s">
         <v>84</v>
       </c>
@@ -3710,7 +3700,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="18"/>
+      <c r="A30" s="19"/>
       <c r="B30" t="s">
         <v>85</v>
       </c>
@@ -3723,7 +3713,7 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A31" s="18"/>
+      <c r="A31" s="19"/>
       <c r="B31" t="s">
         <v>86</v>
       </c>
@@ -3738,7 +3728,7 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A32" s="18"/>
+      <c r="A32" s="19"/>
       <c r="B32" t="s">
         <v>87</v>
       </c>
@@ -3751,7 +3741,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A33" s="18"/>
+      <c r="A33" s="19"/>
       <c r="B33" t="s">
         <v>88</v>
       </c>
@@ -3764,7 +3754,7 @@
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="18"/>
+      <c r="A34" s="19"/>
       <c r="B34" t="s">
         <v>89</v>
       </c>
